--- a/data/trans_dic/P56$auxiliar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,57 +730,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 22,07</t>
+          <t>6,02; 23,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 16,78</t>
+          <t>2,88; 16,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 35,77</t>
+          <t>17,92; 35,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 14,57</t>
+          <t>3,08; 16,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 28,91</t>
+          <t>16,68; 29,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 14,06</t>
+          <t>3,54; 14,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,97; 32,67</t>
+          <t>23,31; 31,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,19</t>
+          <t>1,74; 10,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 25,48</t>
+          <t>14,94; 25,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 11,45</t>
+          <t>4,04; 11,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,78; 31,49</t>
+          <t>23,69; 31,49</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 29,56</t>
+          <t>7,5; 28,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,47</t>
+          <t>0,0; 20,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,31; 39,12</t>
+          <t>20,0; 39,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,34</t>
+          <t>0,0; 14,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 31,86</t>
+          <t>17,24; 31,87</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,96</t>
+          <t>0,0; 44,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,38</t>
+          <t>0,0; 25,06</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 20,26</t>
+          <t>5,28; 20,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,04</t>
+          <t>2,28; 13,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 28,6</t>
+          <t>15,59; 28,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 13,87</t>
+          <t>3,15; 13,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 26,58</t>
+          <t>14,82; 26,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,22</t>
+          <t>3,52; 12,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 31,56</t>
+          <t>24,0; 31,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,73</t>
+          <t>1,59; 8,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 22,41</t>
+          <t>13,68; 23,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,29</t>
+          <t>3,65; 10,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 29,28</t>
+          <t>22,91; 30,1</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8815</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17819</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10432</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55919</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>49661</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14648</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>73738</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1722</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4115; 15832</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1630; 9088</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12171; 23830</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2566; 13406</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31010; 54163</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5049; 20196</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46749; 64042</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2221; 12895</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38000; 64617</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8048; 23540</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63593; 84538</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12084</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16438</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1268</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1622</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2033; 7766</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1788</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1845</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5264</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8413; 16492</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1712</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1890</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5215</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11928; 22044</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 761</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1016</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1493</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1603</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1630</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2882</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1493</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1654</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3244</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8815</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22173</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11643</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>68974</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49661</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15859</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>91148</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4144; 16088</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1641; 9814</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15817; 28950</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2942; 12902</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29952; 53229</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6053; 21681</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59789; 79076</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2256; 12751</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38392; 64598</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8909; 24568</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>80325; 105544</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>